--- a/Тестирование/ПЗ№3(Черновые требования).xlsx
+++ b/Тестирование/ПЗ№3(Черновые требования).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ДГТУ\Тестирование_ПО\КурсЛекцийТестированиеПО\тест-кейсы_и_чек-листы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\vis43\Тестирование\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3FEFE2-E29E-4E88-A740-EE8C10A64868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83888001-9707-44E8-A284-11A8871FA99F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Требования</t>
   </si>
@@ -103,6 +103,60 @@
   </si>
   <si>
     <t>Mobile number - можно ввести только цифры. Требований к ограничению длины нет. При вводе спецсимволов - Special characters are not allowed. При вводе букв - Characters are not allowed. При вводе букв и спецсимволов - Numbers and special characters are not allowed. Если поле оставить пустым и нажать на кнопку Submit должно появиться сообщение - Mobile must not be blank</t>
+  </si>
+  <si>
+    <t>в целом тут все ясно</t>
+  </si>
+  <si>
+    <t>все есть кроме делит кастомер</t>
+  </si>
+  <si>
+    <t>все 4 кнопки направляют куда надо</t>
+  </si>
+  <si>
+    <t>все четко</t>
+  </si>
+  <si>
+    <t>все верно</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>лого в шапке присутствует</t>
+  </si>
+  <si>
+    <t>все ввел и все работает</t>
+  </si>
+  <si>
+    <t>все есть</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>на счет уникальным проверить не могу, но оно точно из 6 чисел</t>
+  </si>
+  <si>
+    <t>ввести можно только буквы / если цифры то валидация будет ругаться / Спец символы нельзя/ а вот если писать кирилицей - то пишет замечание "numbers are not allowed" / если написать цифры латиницу и спец - Special characters are not allowed / нет, пишет please fill all fields</t>
+  </si>
+  <si>
+    <t>да / да / да / да / при вводе кирилицы - Numbers are not allowed / цифр, кириллицы и спецсимволов - Special characters are not allowed / нет, please fill all fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">да, да, да / да / да / если пустое то please fill all fields / </t>
+  </si>
+  <si>
+    <t>цифры тоже можно, да, да, точкая и запятая запрещены, при кириллице - Special characters are not allowed, кирилл и спец символы - Special characters are not allowed, Address Field must not be blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да цифры и + перед номером, огр. Длины есть, спец символы - Special characters are not allowed, при вводе букв Characters are not allowed, букв и спец - Special characters are not allowed, если пустое - Mobile no must not be blank, </t>
   </si>
 </sst>
 </file>
@@ -474,17 +528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,214 +546,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="67.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="106.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
